--- a/mainexcel/squad3/С-23-2.xlsx
+++ b/mainexcel/squad3/С-23-2.xlsx
@@ -193,6 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -754,23 +755,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625"/>
+    <col min="2" max="2" customWidth="true" width="15.7109375"/>
+    <col min="3" max="3" customWidth="true" style="2" width="17.28515625"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.42578125"/>
+    <col min="6" max="6" customWidth="true" width="2.7109375"/>
+    <col min="7" max="7" customWidth="true" style="1" width="2.28515625"/>
+    <col min="8" max="8" customWidth="true" width="15.7109375"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.42578125"/>
+    <col min="10" max="10" customWidth="true" width="15.7109375"/>
+    <col min="11" max="11" customWidth="true" style="2" width="19.85546875"/>
+    <col min="12" max="12" customWidth="true" width="2.7109375"/>
+    <col min="13" max="13" customWidth="true" style="1" width="2.28515625"/>
+    <col min="14" max="14" customWidth="true" width="15.7109375"/>
+    <col min="15" max="15" customWidth="true" style="2" width="18.0"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375"/>
+    <col min="17" max="17" customWidth="true" style="2" width="19.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
@@ -1801,131 +1802,90 @@
   <mergeCells count="128">
     <mergeCell ref="N36:Q36"/>
     <mergeCell ref="N37:P37"/>
-    <mergeCell ref="M36:M37"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="M38:M39"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G38:G39"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="G40:G41"/>
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="G33:K33"/>
     <mergeCell ref="H34:I34"/>
-    <mergeCell ref="G34:G35"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="G36:G37"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="M27:M28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A34:A35"/>
     <mergeCell ref="M33:Q33"/>
     <mergeCell ref="N34:Q34"/>
     <mergeCell ref="N35:P35"/>
-    <mergeCell ref="M34:M35"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="G29:G30"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="M22:Q22"/>
     <mergeCell ref="N23:Q23"/>
     <mergeCell ref="N24:P24"/>
-    <mergeCell ref="M23:M24"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N26:P26"/>
-    <mergeCell ref="M25:M26"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="G27:G28"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="M17:M18"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="M19:M20"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="M12:Q12"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="M13:M14"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="M15:M16"/>
     <mergeCell ref="N17:Q17"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
